--- a/Financials/Quarterly/KEP_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KEP_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB617D-0C78-4DB4-B460-26B025753B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KEP" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,148 +686,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12003400</v>
+        <v>13353600</v>
       </c>
       <c r="E8" s="3">
-        <v>14135400</v>
+        <v>14440700</v>
       </c>
       <c r="F8" s="3">
-        <v>13999500</v>
+        <v>11736700</v>
       </c>
       <c r="G8" s="3">
-        <v>14569000</v>
+        <v>13821300</v>
       </c>
       <c r="H8" s="3">
-        <v>11633000</v>
+        <v>13688400</v>
       </c>
       <c r="I8" s="3">
+        <v>14245200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11374500</v>
+      </c>
+      <c r="K8" s="3">
         <v>13631900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13757500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14349100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12066100</v>
+        <v>13403400</v>
       </c>
       <c r="E9" s="3">
-        <v>13716900</v>
+        <v>12685100</v>
       </c>
       <c r="F9" s="3">
-        <v>13288600</v>
+        <v>11797900</v>
       </c>
       <c r="G9" s="3">
-        <v>11523300</v>
+        <v>13412100</v>
       </c>
       <c r="H9" s="3">
-        <v>10323500</v>
+        <v>12993300</v>
       </c>
       <c r="I9" s="3">
+        <v>11267200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10094100</v>
+      </c>
+      <c r="K9" s="3">
         <v>11829700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11912700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9738500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-62600</v>
+        <v>-49700</v>
       </c>
       <c r="E10" s="3">
-        <v>418500</v>
+        <v>1755500</v>
       </c>
       <c r="F10" s="3">
-        <v>710900</v>
+        <v>-61200</v>
       </c>
       <c r="G10" s="3">
-        <v>3045600</v>
+        <v>409200</v>
       </c>
       <c r="H10" s="3">
-        <v>1309500</v>
+        <v>695100</v>
       </c>
       <c r="I10" s="3">
+        <v>2978000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1280400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1802300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1844800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4610700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,37 +863,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38300</v>
+        <v>72000</v>
       </c>
       <c r="E12" s="3">
-        <v>37900</v>
+        <v>43200</v>
       </c>
       <c r="F12" s="3">
-        <v>61600</v>
+        <v>37400</v>
       </c>
       <c r="G12" s="3">
-        <v>49300</v>
+        <v>37000</v>
       </c>
       <c r="H12" s="3">
-        <v>43200</v>
+        <v>60300</v>
       </c>
       <c r="I12" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K12" s="3">
         <v>36100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>69200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,66 +929,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>627800</v>
+        <v>66700</v>
       </c>
       <c r="E14" s="3">
-        <v>-22100</v>
+        <v>-13500</v>
       </c>
       <c r="F14" s="3">
-        <v>51600</v>
+        <v>613800</v>
       </c>
       <c r="G14" s="3">
-        <v>-17800</v>
+        <v>-21600</v>
       </c>
       <c r="H14" s="3">
-        <v>-22200</v>
+        <v>50500</v>
       </c>
       <c r="I14" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-22300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>165000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-24100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>58300</v>
+        <v>63400</v>
       </c>
       <c r="E15" s="3">
-        <v>64200</v>
+        <v>59000</v>
       </c>
       <c r="F15" s="3">
-        <v>56100</v>
+        <v>57000</v>
       </c>
       <c r="G15" s="3">
-        <v>54300</v>
+        <v>62700</v>
       </c>
       <c r="H15" s="3">
-        <v>52500</v>
+        <v>54900</v>
       </c>
       <c r="I15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K15" s="3">
         <v>54700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>61200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -930,66 +1015,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13251100</v>
+        <v>14115600</v>
       </c>
       <c r="E17" s="3">
-        <v>14229700</v>
+        <v>13200900</v>
       </c>
       <c r="F17" s="3">
-        <v>14169100</v>
+        <v>12956600</v>
       </c>
       <c r="G17" s="3">
-        <v>12057000</v>
+        <v>13913500</v>
       </c>
       <c r="H17" s="3">
-        <v>10850400</v>
+        <v>13854300</v>
       </c>
       <c r="I17" s="3">
+        <v>11789000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10609300</v>
+      </c>
+      <c r="K17" s="3">
         <v>12294300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12783200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10344800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1247700</v>
+        <v>-762000</v>
       </c>
       <c r="E18" s="3">
-        <v>-94300</v>
+        <v>1239800</v>
       </c>
       <c r="F18" s="3">
-        <v>-169600</v>
+        <v>-1219900</v>
       </c>
       <c r="G18" s="3">
-        <v>2512000</v>
+        <v>-92200</v>
       </c>
       <c r="H18" s="3">
-        <v>782600</v>
+        <v>-165900</v>
       </c>
       <c r="I18" s="3">
+        <v>2456200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>765200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1337600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>974300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4004300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,153 +1100,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>136100</v>
+        <v>158400</v>
       </c>
       <c r="E20" s="3">
-        <v>274200</v>
+        <v>158200</v>
       </c>
       <c r="F20" s="3">
-        <v>82800</v>
+        <v>133100</v>
       </c>
       <c r="G20" s="3">
-        <v>-126900</v>
+        <v>268100</v>
       </c>
       <c r="H20" s="3">
-        <v>135100</v>
+        <v>81000</v>
       </c>
       <c r="I20" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K20" s="3">
         <v>309800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-151500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1194600</v>
+        <v>1574500</v>
       </c>
       <c r="E21" s="3">
-        <v>2417500</v>
+        <v>3599000</v>
       </c>
       <c r="F21" s="3">
-        <v>2156400</v>
+        <v>1168000</v>
       </c>
       <c r="G21" s="3">
-        <v>4594400</v>
+        <v>2363800</v>
       </c>
       <c r="H21" s="3">
-        <v>3098000</v>
+        <v>2108500</v>
       </c>
       <c r="I21" s="3">
+        <v>4492300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3029100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3810900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2984900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6148000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>418400</v>
+        <v>405900</v>
       </c>
       <c r="E22" s="3">
-        <v>416100</v>
+        <v>422300</v>
       </c>
       <c r="F22" s="3">
-        <v>404100</v>
+        <v>409100</v>
       </c>
       <c r="G22" s="3">
-        <v>416900</v>
+        <v>406900</v>
       </c>
       <c r="H22" s="3">
-        <v>392800</v>
+        <v>395100</v>
       </c>
       <c r="I22" s="3">
+        <v>407600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>384100</v>
+      </c>
+      <c r="K22" s="3">
         <v>396900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>390500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>393900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1530000</v>
+        <v>-1009500</v>
       </c>
       <c r="E23" s="3">
-        <v>-236200</v>
+        <v>975700</v>
       </c>
       <c r="F23" s="3">
-        <v>-490900</v>
+        <v>-1496000</v>
       </c>
       <c r="G23" s="3">
-        <v>1968200</v>
+        <v>-230900</v>
       </c>
       <c r="H23" s="3">
-        <v>524900</v>
+        <v>-480000</v>
       </c>
       <c r="I23" s="3">
+        <v>1924500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>513200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1250600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>432300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3708200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-703300</v>
+        <v>-355900</v>
       </c>
       <c r="E24" s="3">
-        <v>-10800</v>
+        <v>326900</v>
       </c>
       <c r="F24" s="3">
-        <v>721200</v>
+        <v>-687600</v>
       </c>
       <c r="G24" s="3">
-        <v>591900</v>
+        <v>-10500</v>
       </c>
       <c r="H24" s="3">
-        <v>201900</v>
+        <v>705200</v>
       </c>
       <c r="I24" s="3">
+        <v>578800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K24" s="3">
         <v>440600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>180700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1063800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,66 +1306,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-826700</v>
+        <v>-653600</v>
       </c>
       <c r="E26" s="3">
-        <v>-225400</v>
+        <v>648800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1212100</v>
+        <v>-808400</v>
       </c>
       <c r="G26" s="3">
-        <v>1376300</v>
+        <v>-220400</v>
       </c>
       <c r="H26" s="3">
-        <v>323000</v>
+        <v>-1185200</v>
       </c>
       <c r="I26" s="3">
+        <v>1345700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>315900</v>
+      </c>
+      <c r="K26" s="3">
         <v>810000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>251500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2644400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-854300</v>
+        <v>-701100</v>
       </c>
       <c r="E27" s="3">
-        <v>-249500</v>
+        <v>623600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1249600</v>
+        <v>-835300</v>
       </c>
       <c r="G27" s="3">
-        <v>1343700</v>
+        <v>-244000</v>
       </c>
       <c r="H27" s="3">
-        <v>294400</v>
+        <v>-1221800</v>
       </c>
       <c r="I27" s="3">
+        <v>1313900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>287900</v>
+      </c>
+      <c r="K27" s="3">
         <v>780200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>246000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1262,8 +1411,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1291,8 +1446,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1481,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,66 +1516,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-136100</v>
+        <v>-158400</v>
       </c>
       <c r="E32" s="3">
-        <v>-274200</v>
+        <v>-158200</v>
       </c>
       <c r="F32" s="3">
-        <v>-82800</v>
+        <v>-133100</v>
       </c>
       <c r="G32" s="3">
-        <v>126900</v>
+        <v>-268100</v>
       </c>
       <c r="H32" s="3">
-        <v>-135100</v>
+        <v>-81000</v>
       </c>
       <c r="I32" s="3">
+        <v>124100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-309800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>151500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-97800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-854300</v>
+        <v>-701100</v>
       </c>
       <c r="E33" s="3">
-        <v>-249500</v>
+        <v>623600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1249600</v>
+        <v>-835300</v>
       </c>
       <c r="G33" s="3">
-        <v>1343700</v>
+        <v>-244000</v>
       </c>
       <c r="H33" s="3">
-        <v>294400</v>
+        <v>-1221800</v>
       </c>
       <c r="I33" s="3">
+        <v>1313900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>287900</v>
+      </c>
+      <c r="K33" s="3">
         <v>780200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>246000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1436,71 +1621,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-854300</v>
+        <v>-701100</v>
       </c>
       <c r="E35" s="3">
-        <v>-249500</v>
+        <v>623600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1249600</v>
+        <v>-835300</v>
       </c>
       <c r="G35" s="3">
-        <v>1343700</v>
+        <v>-244000</v>
       </c>
       <c r="H35" s="3">
-        <v>294400</v>
+        <v>-1221800</v>
       </c>
       <c r="I35" s="3">
+        <v>1313900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>287900</v>
+      </c>
+      <c r="K35" s="3">
         <v>780200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>246000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1512,8 +1715,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,269 +1730,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1387100</v>
+        <v>1002500</v>
       </c>
       <c r="E41" s="3">
-        <v>2067300</v>
+        <v>1161200</v>
       </c>
       <c r="F41" s="3">
-        <v>1375500</v>
+        <v>1356300</v>
       </c>
       <c r="G41" s="3">
-        <v>1519700</v>
+        <v>2021300</v>
       </c>
       <c r="H41" s="3">
-        <v>2171900</v>
+        <v>1344900</v>
       </c>
       <c r="I41" s="3">
+        <v>1485900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2123600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1827200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1661800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1217900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3432400</v>
+        <v>2106000</v>
       </c>
       <c r="E42" s="3">
-        <v>3149300</v>
+        <v>5085400</v>
       </c>
       <c r="F42" s="3">
-        <v>2258400</v>
+        <v>3356100</v>
       </c>
       <c r="G42" s="3">
-        <v>3220200</v>
+        <v>3079300</v>
       </c>
       <c r="H42" s="3">
-        <v>2282600</v>
+        <v>2208200</v>
       </c>
       <c r="I42" s="3">
+        <v>3148600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2231900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2774500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3489200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5767600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6263500</v>
+        <v>6893900</v>
       </c>
       <c r="E43" s="3">
-        <v>6114600</v>
+        <v>6110400</v>
       </c>
       <c r="F43" s="3">
-        <v>7445600</v>
+        <v>6124300</v>
       </c>
       <c r="G43" s="3">
-        <v>6483000</v>
+        <v>5978800</v>
       </c>
       <c r="H43" s="3">
-        <v>6389300</v>
+        <v>7280100</v>
       </c>
       <c r="I43" s="3">
+        <v>6339000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6247300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6018400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7027200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5796400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5808000</v>
+        <v>6325700</v>
       </c>
       <c r="E44" s="3">
-        <v>5369800</v>
+        <v>5734700</v>
       </c>
       <c r="F44" s="3">
-        <v>5401900</v>
+        <v>5678900</v>
       </c>
       <c r="G44" s="3">
-        <v>5452100</v>
+        <v>5250500</v>
       </c>
       <c r="H44" s="3">
-        <v>5226300</v>
+        <v>5281800</v>
       </c>
       <c r="I44" s="3">
+        <v>5330900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5110100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5005800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4931500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1495000</v>
+        <v>1047500</v>
       </c>
       <c r="E45" s="3">
-        <v>1146500</v>
+        <v>1180700</v>
       </c>
       <c r="F45" s="3">
-        <v>746100</v>
+        <v>1461700</v>
       </c>
       <c r="G45" s="3">
-        <v>739800</v>
+        <v>1121000</v>
       </c>
       <c r="H45" s="3">
-        <v>1086800</v>
+        <v>729500</v>
       </c>
       <c r="I45" s="3">
+        <v>723300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1062700</v>
+      </c>
+      <c r="K45" s="3">
         <v>997600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>627900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>558100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>18385900</v>
+        <v>17375700</v>
       </c>
       <c r="E46" s="3">
-        <v>17847500</v>
+        <v>19272500</v>
       </c>
       <c r="F46" s="3">
-        <v>17227500</v>
+        <v>17977300</v>
       </c>
       <c r="G46" s="3">
-        <v>17414800</v>
+        <v>17450800</v>
       </c>
       <c r="H46" s="3">
-        <v>17156900</v>
+        <v>16844700</v>
       </c>
       <c r="I46" s="3">
+        <v>17027800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>16775600</v>
+      </c>
+      <c r="K46" s="3">
         <v>16623500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17737700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17648200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>7916300</v>
+        <v>7884500</v>
       </c>
       <c r="E47" s="3">
-        <v>7963300</v>
+        <v>7882800</v>
       </c>
       <c r="F47" s="3">
-        <v>7710500</v>
+        <v>7740400</v>
       </c>
       <c r="G47" s="3">
-        <v>8081100</v>
+        <v>7786400</v>
       </c>
       <c r="H47" s="3">
-        <v>8259100</v>
+        <v>7539100</v>
       </c>
       <c r="I47" s="3">
+        <v>7901500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8075500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7886800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9064300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8285800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>137463700</v>
+        <v>134554400</v>
       </c>
       <c r="E48" s="3">
-        <v>136777300</v>
+        <v>133945900</v>
       </c>
       <c r="F48" s="3">
-        <v>136050400</v>
+        <v>134409000</v>
       </c>
       <c r="G48" s="3">
-        <v>133310700</v>
+        <v>133737800</v>
       </c>
       <c r="H48" s="3">
-        <v>134043700</v>
+        <v>133027100</v>
       </c>
       <c r="I48" s="3">
+        <v>130348200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>131065000</v>
+      </c>
+      <c r="K48" s="3">
         <v>132573100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>131487100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>130767400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1086700</v>
+        <v>1081100</v>
       </c>
       <c r="E49" s="3">
-        <v>1067500</v>
+        <v>1037600</v>
       </c>
       <c r="F49" s="3">
-        <v>1070700</v>
+        <v>1062600</v>
       </c>
       <c r="G49" s="3">
-        <v>1056100</v>
+        <v>1043800</v>
       </c>
       <c r="H49" s="3">
-        <v>1059000</v>
+        <v>1046900</v>
       </c>
       <c r="I49" s="3">
+        <v>1032600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1035500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1013100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>885100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +2076,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1844,37 +2111,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2354800</v>
+        <v>2123500</v>
       </c>
       <c r="E52" s="3">
-        <v>1966500</v>
+        <v>2223300</v>
       </c>
       <c r="F52" s="3">
-        <v>1550900</v>
+        <v>2302500</v>
       </c>
       <c r="G52" s="3">
-        <v>1466300</v>
+        <v>1922800</v>
       </c>
       <c r="H52" s="3">
-        <v>1425700</v>
+        <v>1516400</v>
       </c>
       <c r="I52" s="3">
+        <v>1433700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1618100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>879200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1143100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1902,37 +2181,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>167207500</v>
+        <v>163019200</v>
       </c>
       <c r="E54" s="3">
-        <v>165622100</v>
+        <v>164362100</v>
       </c>
       <c r="F54" s="3">
-        <v>163610000</v>
+        <v>163491800</v>
       </c>
       <c r="G54" s="3">
-        <v>161328900</v>
+        <v>161941600</v>
       </c>
       <c r="H54" s="3">
-        <v>161944400</v>
+        <v>159974200</v>
       </c>
       <c r="I54" s="3">
+        <v>157743900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>158345600</v>
+      </c>
+      <c r="K54" s="3">
         <v>159714600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>160053300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>158615100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2235,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1957,182 +2250,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2215400</v>
+        <v>3002400</v>
       </c>
       <c r="E57" s="3">
-        <v>2706300</v>
+        <v>2218300</v>
       </c>
       <c r="F57" s="3">
-        <v>2643400</v>
+        <v>2166200</v>
       </c>
       <c r="G57" s="3">
-        <v>1810800</v>
+        <v>2646100</v>
       </c>
       <c r="H57" s="3">
-        <v>1868400</v>
+        <v>2584700</v>
       </c>
       <c r="I57" s="3">
+        <v>1770600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1826900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1872400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2349300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10685600</v>
+        <v>7056400</v>
       </c>
       <c r="E58" s="3">
-        <v>8209200</v>
+        <v>8150800</v>
       </c>
       <c r="F58" s="3">
-        <v>8329600</v>
+        <v>10448100</v>
       </c>
       <c r="G58" s="3">
-        <v>7758600</v>
+        <v>8026800</v>
       </c>
       <c r="H58" s="3">
-        <v>9615500</v>
+        <v>8144500</v>
       </c>
       <c r="I58" s="3">
+        <v>7586200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9401800</v>
+      </c>
+      <c r="K58" s="3">
         <v>8579500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8154200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8775800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>10713000</v>
+        <v>9161700</v>
       </c>
       <c r="E59" s="3">
-        <v>11405200</v>
+        <v>9504300</v>
       </c>
       <c r="F59" s="3">
-        <v>10108900</v>
+        <v>10474900</v>
       </c>
       <c r="G59" s="3">
-        <v>9460700</v>
+        <v>11151800</v>
       </c>
       <c r="H59" s="3">
-        <v>10934400</v>
+        <v>9884200</v>
       </c>
       <c r="I59" s="3">
+        <v>9250400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10691400</v>
+      </c>
+      <c r="K59" s="3">
         <v>12680100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11761700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11125800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>23614000</v>
+        <v>19220500</v>
       </c>
       <c r="E60" s="3">
-        <v>22320700</v>
+        <v>19873400</v>
       </c>
       <c r="F60" s="3">
-        <v>21081900</v>
+        <v>23089200</v>
       </c>
       <c r="G60" s="3">
-        <v>19030100</v>
+        <v>21824700</v>
       </c>
       <c r="H60" s="3">
-        <v>22418300</v>
+        <v>20613400</v>
       </c>
       <c r="I60" s="3">
+        <v>18607200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>21920200</v>
+      </c>
+      <c r="K60" s="3">
         <v>23132000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22265300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21223200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>44158600</v>
+        <v>46903800</v>
       </c>
       <c r="E61" s="3">
-        <v>42728000</v>
+        <v>46188600</v>
       </c>
       <c r="F61" s="3">
-        <v>41319500</v>
+        <v>43177300</v>
       </c>
       <c r="G61" s="3">
-        <v>42660100</v>
+        <v>41778400</v>
       </c>
       <c r="H61" s="3">
-        <v>41862000</v>
+        <v>40401300</v>
       </c>
       <c r="I61" s="3">
+        <v>41712100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>40931700</v>
+      </c>
+      <c r="K61" s="3">
         <v>39552200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>40608100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>40720700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>35284400</v>
+        <v>34333200</v>
       </c>
       <c r="E62" s="3">
-        <v>35595200</v>
+        <v>34995300</v>
       </c>
       <c r="F62" s="3">
-        <v>35540500</v>
+        <v>34500300</v>
       </c>
       <c r="G62" s="3">
-        <v>32638600</v>
+        <v>34804200</v>
       </c>
       <c r="H62" s="3">
-        <v>32081100</v>
+        <v>34750700</v>
       </c>
       <c r="I62" s="3">
+        <v>31913300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>31368200</v>
+      </c>
+      <c r="K62" s="3">
         <v>31843400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31434400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>31597100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2160,8 +2491,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2189,8 +2526,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,37 +2561,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>104232200</v>
+        <v>101644500</v>
       </c>
       <c r="E66" s="3">
-        <v>101791300</v>
+        <v>102210500</v>
       </c>
       <c r="F66" s="3">
-        <v>99096700</v>
+        <v>101916000</v>
       </c>
       <c r="G66" s="3">
-        <v>95555600</v>
+        <v>99529300</v>
       </c>
       <c r="H66" s="3">
-        <v>97567600</v>
+        <v>96894600</v>
       </c>
       <c r="I66" s="3">
+        <v>93432100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>95399400</v>
+      </c>
+      <c r="K66" s="3">
         <v>95708100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>95502000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>94709900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,8 +2615,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2289,8 +2646,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2318,8 +2681,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2347,8 +2716,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2376,37 +2751,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>46499800</v>
+        <v>45336800</v>
       </c>
       <c r="E72" s="3">
-        <v>47390200</v>
+        <v>46066400</v>
       </c>
       <c r="F72" s="3">
-        <v>48033500</v>
+        <v>45466500</v>
       </c>
       <c r="G72" s="3">
-        <v>49104500</v>
+        <v>46337100</v>
       </c>
       <c r="H72" s="3">
-        <v>47761100</v>
+        <v>46966100</v>
       </c>
       <c r="I72" s="3">
+        <v>48013300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>46699700</v>
+      </c>
+      <c r="K72" s="3">
         <v>47492700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>47856500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>47487200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2434,8 +2821,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2463,8 +2856,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2492,37 +2891,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>62975300</v>
+        <v>61374700</v>
       </c>
       <c r="E76" s="3">
-        <v>63830800</v>
+        <v>62151700</v>
       </c>
       <c r="F76" s="3">
-        <v>64513300</v>
+        <v>61575800</v>
       </c>
       <c r="G76" s="3">
-        <v>65773400</v>
+        <v>62412300</v>
       </c>
       <c r="H76" s="3">
-        <v>64376800</v>
+        <v>63079700</v>
       </c>
       <c r="I76" s="3">
+        <v>64311700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>62946200</v>
+      </c>
+      <c r="K76" s="3">
         <v>64006500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>64551300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63905200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2550,71 +2961,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-854300</v>
+        <v>-701100</v>
       </c>
       <c r="E81" s="3">
-        <v>-249500</v>
+        <v>623600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1249600</v>
+        <v>-835300</v>
       </c>
       <c r="G81" s="3">
-        <v>1343700</v>
+        <v>-244000</v>
       </c>
       <c r="H81" s="3">
-        <v>294400</v>
+        <v>-1221800</v>
       </c>
       <c r="I81" s="3">
+        <v>1313900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>287900</v>
+      </c>
+      <c r="K81" s="3">
         <v>780200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>246000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2626,37 +3055,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2306100</v>
+        <v>2178100</v>
       </c>
       <c r="E83" s="3">
-        <v>2237500</v>
+        <v>2201000</v>
       </c>
       <c r="F83" s="3">
-        <v>2243200</v>
+        <v>2254900</v>
       </c>
       <c r="G83" s="3">
-        <v>2209300</v>
+        <v>2187800</v>
       </c>
       <c r="H83" s="3">
-        <v>2180300</v>
+        <v>2193400</v>
       </c>
       <c r="I83" s="3">
+        <v>2160200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2131900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2163500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2162100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2045900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2684,8 +3121,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2713,8 +3156,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2742,8 +3191,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2771,8 +3226,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2800,37 +3261,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-329200</v>
+        <v>-251600</v>
       </c>
       <c r="E89" s="3">
-        <v>3427000</v>
+        <v>3119700</v>
       </c>
       <c r="F89" s="3">
-        <v>1908200</v>
+        <v>374500</v>
       </c>
       <c r="G89" s="3">
-        <v>3659400</v>
+        <v>2654500</v>
       </c>
       <c r="H89" s="3">
-        <v>1482600</v>
+        <v>1865800</v>
       </c>
       <c r="I89" s="3">
+        <v>3578100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1449700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3011300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2051900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4717300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2842,37 +3315,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3094500</v>
+        <v>-2728400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2912600</v>
+        <v>-2234000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2731200</v>
+        <v>-3005900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2113500</v>
+        <v>-2826600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3340200</v>
+        <v>-2613500</v>
       </c>
       <c r="I91" s="3">
+        <v>-2042300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3235000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3226900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2603300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1578400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2900,8 +3381,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2929,37 +3416,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3499500</v>
+        <v>-826800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3869900</v>
+        <v>-3420100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2097600</v>
+        <v>-3421700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3082600</v>
+        <v>-3783900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2993200</v>
+        <v>-2051000</v>
       </c>
       <c r="I94" s="3">
+        <v>-3014100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2926700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3172700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1851400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2836300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2971,37 +3470,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-7900</v>
+        <v>-21900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-15600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3200</v>
+        <v>-490000</v>
       </c>
       <c r="G96" s="3">
-        <v>1171600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1178000</v>
+        <v>-7100</v>
       </c>
       <c r="I96" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1151900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-3700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3029,8 +3536,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3058,8 +3571,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3087,37 +3606,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>2944700</v>
+        <v>-300300</v>
       </c>
       <c r="E100" s="3">
-        <v>1344800</v>
+        <v>771600</v>
       </c>
       <c r="F100" s="3">
-        <v>-211700</v>
+        <v>2879300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1177700</v>
+        <v>1314900</v>
       </c>
       <c r="H100" s="3">
-        <v>1776400</v>
+        <v>-207000</v>
       </c>
       <c r="I100" s="3">
+        <v>-1151500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1736900</v>
+      </c>
+      <c r="K100" s="3">
         <v>284000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1745100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-615000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3145,33 +3676,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-884000</v>
+        <v>-1378700</v>
       </c>
       <c r="E102" s="3">
-        <v>901900</v>
+        <v>471100</v>
       </c>
       <c r="F102" s="3">
-        <v>-401000</v>
+        <v>-168000</v>
       </c>
       <c r="G102" s="3">
-        <v>-600900</v>
+        <v>185500</v>
       </c>
       <c r="H102" s="3">
-        <v>265800</v>
+        <v>-392100</v>
       </c>
       <c r="I102" s="3">
+        <v>-587500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>259900</v>
+      </c>
+      <c r="K102" s="3">
         <v>122700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1544500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1266100</v>
       </c>
     </row>

--- a/Financials/Quarterly/KEP_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KEP_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB617D-0C78-4DB4-B460-26B025753B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KEP" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,172 +651,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13353600</v>
+        <v>13366300</v>
       </c>
       <c r="E8" s="3">
-        <v>14440700</v>
+        <v>10979600</v>
       </c>
       <c r="F8" s="3">
-        <v>11736700</v>
+        <v>12808700</v>
       </c>
       <c r="G8" s="3">
-        <v>13821300</v>
+        <v>12746600</v>
       </c>
       <c r="H8" s="3">
+        <v>13784300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11203200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13193100</v>
+      </c>
+      <c r="K8" s="3">
         <v>13688400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>14245200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>11374500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>13631900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>13757500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>14349100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13403400</v>
+        <v>11836000</v>
       </c>
       <c r="E9" s="3">
-        <v>12685100</v>
+        <v>10695500</v>
       </c>
       <c r="F9" s="3">
-        <v>11797900</v>
+        <v>12828600</v>
       </c>
       <c r="G9" s="3">
-        <v>13412100</v>
+        <v>12794100</v>
       </c>
       <c r="H9" s="3">
+        <v>12108500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11261700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12802400</v>
+      </c>
+      <c r="K9" s="3">
         <v>12993300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>11267200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>10094100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>11829700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>11912700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>9738500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-49700</v>
+        <v>1530300</v>
       </c>
       <c r="E10" s="3">
-        <v>1755500</v>
+        <v>284200</v>
       </c>
       <c r="F10" s="3">
-        <v>-61200</v>
+        <v>-20000</v>
       </c>
       <c r="G10" s="3">
-        <v>409200</v>
+        <v>-47500</v>
       </c>
       <c r="H10" s="3">
+        <v>1675700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>390600</v>
+      </c>
+      <c r="K10" s="3">
         <v>695100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>2978000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1280400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1802300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1844800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>4610700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,43 +866,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>72000</v>
+        <v>49000</v>
       </c>
       <c r="E12" s="3">
-        <v>43200</v>
+        <v>31500</v>
       </c>
       <c r="F12" s="3">
-        <v>37400</v>
+        <v>34500</v>
       </c>
       <c r="G12" s="3">
-        <v>37000</v>
+        <v>68700</v>
       </c>
       <c r="H12" s="3">
+        <v>41300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>35700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K12" s="3">
         <v>60300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>48200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>42300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>36100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>69200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,78 +948,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>66700</v>
+        <v>319500</v>
       </c>
       <c r="E14" s="3">
-        <v>-13500</v>
+        <v>55300</v>
       </c>
       <c r="F14" s="3">
-        <v>613800</v>
+        <v>-19200</v>
       </c>
       <c r="G14" s="3">
-        <v>-21600</v>
+        <v>63600</v>
       </c>
       <c r="H14" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>585900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K14" s="3">
         <v>50500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>-17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>-21700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>-22300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>165000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-24100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>63400</v>
+        <v>60400</v>
       </c>
       <c r="E15" s="3">
-        <v>59000</v>
+        <v>71400</v>
       </c>
       <c r="F15" s="3">
-        <v>57000</v>
+        <v>62700</v>
       </c>
       <c r="G15" s="3">
-        <v>62700</v>
+        <v>60600</v>
       </c>
       <c r="H15" s="3">
+        <v>56400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>54400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K15" s="3">
         <v>54900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>53000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>51400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>54700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>61200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,78 +1057,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14115600</v>
+        <v>12646300</v>
       </c>
       <c r="E17" s="3">
-        <v>13200900</v>
+        <v>11287200</v>
       </c>
       <c r="F17" s="3">
-        <v>12956600</v>
+        <v>13319900</v>
       </c>
       <c r="G17" s="3">
-        <v>13913500</v>
+        <v>13474000</v>
       </c>
       <c r="H17" s="3">
+        <v>12600800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12367700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13281000</v>
+      </c>
+      <c r="K17" s="3">
         <v>13854300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>11789000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>10609300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>12294300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>12783200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>10344800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-762000</v>
+        <v>720100</v>
       </c>
       <c r="E18" s="3">
-        <v>1239800</v>
+        <v>-307600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1219900</v>
+        <v>-511300</v>
       </c>
       <c r="G18" s="3">
-        <v>-92200</v>
+        <v>-727300</v>
       </c>
       <c r="H18" s="3">
+        <v>1183500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1164500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-165900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>2456200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>765200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1337600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>974300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>4004300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,183 +1163,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>158400</v>
+        <v>-24600</v>
       </c>
       <c r="E20" s="3">
-        <v>158200</v>
+        <v>108500</v>
       </c>
       <c r="F20" s="3">
-        <v>133100</v>
+        <v>265800</v>
       </c>
       <c r="G20" s="3">
-        <v>268100</v>
+        <v>151200</v>
       </c>
       <c r="H20" s="3">
+        <v>151000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>127000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>255900</v>
+      </c>
+      <c r="K20" s="3">
         <v>81000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-124100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>132100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>309800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-151500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1574500</v>
+        <v>2975700</v>
       </c>
       <c r="E21" s="3">
-        <v>3599000</v>
+        <v>2097400</v>
       </c>
       <c r="F21" s="3">
-        <v>1168000</v>
+        <v>1985600</v>
       </c>
       <c r="G21" s="3">
-        <v>2363800</v>
+        <v>1503000</v>
       </c>
       <c r="H21" s="3">
+        <v>3435400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1114900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2256300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2108500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>4492300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>3029100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>3810900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>2984900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>6148000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>405900</v>
+        <v>437900</v>
       </c>
       <c r="E22" s="3">
-        <v>422300</v>
+        <v>431000</v>
       </c>
       <c r="F22" s="3">
-        <v>409100</v>
+        <v>422800</v>
       </c>
       <c r="G22" s="3">
-        <v>406900</v>
+        <v>387500</v>
       </c>
       <c r="H22" s="3">
+        <v>403100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>390500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>388400</v>
+      </c>
+      <c r="K22" s="3">
         <v>395100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>407600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>384100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>396900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>390500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>393900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1009500</v>
+        <v>257500</v>
       </c>
       <c r="E23" s="3">
-        <v>975700</v>
+        <v>-630100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1496000</v>
+        <v>-668300</v>
       </c>
       <c r="G23" s="3">
-        <v>-230900</v>
+        <v>-963600</v>
       </c>
       <c r="H23" s="3">
+        <v>931300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1428000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-480000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1924500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>513200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1250600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>432300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>3708200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-355900</v>
+        <v>55000</v>
       </c>
       <c r="E24" s="3">
-        <v>326900</v>
+        <v>-283900</v>
       </c>
       <c r="F24" s="3">
-        <v>-687600</v>
+        <v>-28900</v>
       </c>
       <c r="G24" s="3">
-        <v>-10500</v>
+        <v>-339700</v>
       </c>
       <c r="H24" s="3">
+        <v>312000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-656400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K24" s="3">
         <v>705200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>578800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>197400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>440600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>180700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>1063800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1312,78 +1421,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-653600</v>
+        <v>202500</v>
       </c>
       <c r="E26" s="3">
-        <v>648800</v>
+        <v>-346200</v>
       </c>
       <c r="F26" s="3">
-        <v>-808400</v>
+        <v>-639400</v>
       </c>
       <c r="G26" s="3">
-        <v>-220400</v>
+        <v>-623900</v>
       </c>
       <c r="H26" s="3">
+        <v>619300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-771600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-210400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1185200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1345700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>315900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>810000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>251500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>2644400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-701100</v>
+        <v>187100</v>
       </c>
       <c r="E27" s="3">
-        <v>623600</v>
+        <v>-375900</v>
       </c>
       <c r="F27" s="3">
-        <v>-835300</v>
+        <v>-661800</v>
       </c>
       <c r="G27" s="3">
-        <v>-244000</v>
+        <v>-669200</v>
       </c>
       <c r="H27" s="3">
+        <v>595200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-797300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1221800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1313900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>287900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>780200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>246000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,8 +1553,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1597,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1641,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,78 +1685,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-158400</v>
+        <v>24600</v>
       </c>
       <c r="E32" s="3">
-        <v>-158200</v>
+        <v>-108500</v>
       </c>
       <c r="F32" s="3">
-        <v>-133100</v>
+        <v>-265800</v>
       </c>
       <c r="G32" s="3">
-        <v>-268100</v>
+        <v>-151200</v>
       </c>
       <c r="H32" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-81000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>124100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-132100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-309800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>151500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-97800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-701100</v>
+        <v>187100</v>
       </c>
       <c r="E33" s="3">
-        <v>623600</v>
+        <v>-375900</v>
       </c>
       <c r="F33" s="3">
-        <v>-835300</v>
+        <v>-661800</v>
       </c>
       <c r="G33" s="3">
-        <v>-244000</v>
+        <v>-669200</v>
       </c>
       <c r="H33" s="3">
+        <v>595200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-797300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1221800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1313900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>287900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>780200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>246000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1627,83 +1817,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-701100</v>
+        <v>187100</v>
       </c>
       <c r="E35" s="3">
-        <v>623600</v>
+        <v>-375900</v>
       </c>
       <c r="F35" s="3">
-        <v>-835300</v>
+        <v>-661800</v>
       </c>
       <c r="G35" s="3">
-        <v>-244000</v>
+        <v>-669200</v>
       </c>
       <c r="H35" s="3">
+        <v>595200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-797300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1221800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1313900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>287900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>780200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>246000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1934,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,323 +1952,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1002500</v>
+        <v>1076500</v>
       </c>
       <c r="E41" s="3">
-        <v>1161200</v>
+        <v>997200</v>
       </c>
       <c r="F41" s="3">
-        <v>1356300</v>
+        <v>1331800</v>
       </c>
       <c r="G41" s="3">
-        <v>2021300</v>
+        <v>956900</v>
       </c>
       <c r="H41" s="3">
+        <v>1108500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1294600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1929400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1344900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1485900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2123600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>1827200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1661800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1217900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2106000</v>
+        <v>3732700</v>
       </c>
       <c r="E42" s="3">
-        <v>5085400</v>
+        <v>3031900</v>
       </c>
       <c r="F42" s="3">
-        <v>3356100</v>
+        <v>3282400</v>
       </c>
       <c r="G42" s="3">
-        <v>3079300</v>
+        <v>2011100</v>
       </c>
       <c r="H42" s="3">
+        <v>4854300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3203500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2939300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2208200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>3148600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>2231900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>2774500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>3489200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>5767600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6893900</v>
+        <v>5611000</v>
       </c>
       <c r="E43" s="3">
-        <v>6110400</v>
+        <v>5837900</v>
       </c>
       <c r="F43" s="3">
-        <v>6124300</v>
+        <v>5857300</v>
       </c>
       <c r="G43" s="3">
-        <v>5978800</v>
+        <v>6579700</v>
       </c>
       <c r="H43" s="3">
+        <v>5832600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5845900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5707000</v>
+      </c>
+      <c r="K43" s="3">
         <v>7280100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>6339000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>6247300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>6018400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>7027200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>5796400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6325700</v>
+        <v>5596800</v>
       </c>
       <c r="E44" s="3">
-        <v>5734700</v>
+        <v>5672500</v>
       </c>
       <c r="F44" s="3">
-        <v>5678900</v>
+        <v>5820400</v>
       </c>
       <c r="G44" s="3">
-        <v>5250500</v>
+        <v>6038100</v>
       </c>
       <c r="H44" s="3">
+        <v>5474000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5420800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5011900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5281800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>5330900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>5110100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>5005800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>4931500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1047500</v>
+        <v>1251200</v>
       </c>
       <c r="E45" s="3">
-        <v>1180700</v>
+        <v>1358400</v>
       </c>
       <c r="F45" s="3">
-        <v>1461700</v>
+        <v>1035600</v>
       </c>
       <c r="G45" s="3">
-        <v>1121000</v>
+        <v>999900</v>
       </c>
       <c r="H45" s="3">
+        <v>1127100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1395300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="K45" s="3">
         <v>729500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>723300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>1062700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>997600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>627900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>558100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17375700</v>
+        <v>17268100</v>
       </c>
       <c r="E46" s="3">
-        <v>19272500</v>
+        <v>16897900</v>
       </c>
       <c r="F46" s="3">
-        <v>17977300</v>
+        <v>17327500</v>
       </c>
       <c r="G46" s="3">
-        <v>17450800</v>
+        <v>16585900</v>
       </c>
       <c r="H46" s="3">
+        <v>18396500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>17160200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>16657600</v>
+      </c>
+      <c r="K46" s="3">
         <v>16844700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>17027800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>16775600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>16623500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>17737700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>17648200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>7884500</v>
+        <v>8182500</v>
       </c>
       <c r="E47" s="3">
-        <v>7882800</v>
+        <v>7751500</v>
       </c>
       <c r="F47" s="3">
-        <v>7740400</v>
+        <v>7727200</v>
       </c>
       <c r="G47" s="3">
-        <v>7786400</v>
+        <v>7526100</v>
       </c>
       <c r="H47" s="3">
+        <v>7524500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7388600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7432400</v>
+      </c>
+      <c r="K47" s="3">
         <v>7539100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>7901500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>8075500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>7886800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>9064300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>8285800</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>134554400</v>
+        <v>134464300</v>
       </c>
       <c r="E48" s="3">
-        <v>133945900</v>
+        <v>133850000</v>
       </c>
       <c r="F48" s="3">
-        <v>134409000</v>
+        <v>132663100</v>
       </c>
       <c r="G48" s="3">
-        <v>133737800</v>
+        <v>128438300</v>
       </c>
       <c r="H48" s="3">
+        <v>127857500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>128299500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>127658800</v>
+      </c>
+      <c r="K48" s="3">
         <v>133027100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>130348200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>131065000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>132573100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>131487100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>130767400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1081100</v>
+        <v>838600</v>
       </c>
       <c r="E49" s="3">
-        <v>1037600</v>
+        <v>1228800</v>
       </c>
       <c r="F49" s="3">
-        <v>1062600</v>
+        <v>1098800</v>
       </c>
       <c r="G49" s="3">
-        <v>1043800</v>
+        <v>1032000</v>
       </c>
       <c r="H49" s="3">
+        <v>990500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1014300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>996300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1046900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1032600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>1035500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>1013100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>885100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2082,8 +2386,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2117,43 +2430,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2123500</v>
+        <v>2101500</v>
       </c>
       <c r="E52" s="3">
-        <v>2223300</v>
+        <v>2132000</v>
       </c>
       <c r="F52" s="3">
-        <v>2302500</v>
+        <v>2093800</v>
       </c>
       <c r="G52" s="3">
-        <v>1922800</v>
+        <v>2027000</v>
       </c>
       <c r="H52" s="3">
+        <v>2122300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2197800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1835400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1516400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1433700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1394000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1618100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>879200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1143100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2187,43 +2518,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>163019200</v>
+        <v>162855000</v>
       </c>
       <c r="E54" s="3">
-        <v>164362100</v>
+        <v>161860200</v>
       </c>
       <c r="F54" s="3">
-        <v>163491800</v>
+        <v>160910300</v>
       </c>
       <c r="G54" s="3">
-        <v>161941600</v>
+        <v>155609200</v>
       </c>
       <c r="H54" s="3">
+        <v>156891100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>156060300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>154580600</v>
+      </c>
+      <c r="K54" s="3">
         <v>159974200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>157743900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>158345600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>159714600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>160053300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>158615100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2237,8 +2586,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,218 +2604,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3002400</v>
+        <v>1715800</v>
       </c>
       <c r="E57" s="3">
-        <v>2218300</v>
+        <v>1686400</v>
       </c>
       <c r="F57" s="3">
-        <v>2166200</v>
+        <v>2410200</v>
       </c>
       <c r="G57" s="3">
-        <v>2646100</v>
+        <v>2865900</v>
       </c>
       <c r="H57" s="3">
+        <v>2117500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2067700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2525900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2584700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1770600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1826900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1872400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2349300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7056400</v>
+        <v>9116000</v>
       </c>
       <c r="E58" s="3">
-        <v>8150800</v>
+        <v>9110000</v>
       </c>
       <c r="F58" s="3">
-        <v>10448100</v>
+        <v>7449000</v>
       </c>
       <c r="G58" s="3">
-        <v>8026800</v>
+        <v>6735700</v>
       </c>
       <c r="H58" s="3">
+        <v>7780300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9973200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7661900</v>
+      </c>
+      <c r="K58" s="3">
         <v>8144500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>7586200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>9401800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>8579500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>8154200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>8775800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>9161700</v>
+        <v>9483400</v>
       </c>
       <c r="E59" s="3">
-        <v>9504300</v>
+        <v>9367700</v>
       </c>
       <c r="F59" s="3">
-        <v>10474900</v>
+        <v>9540500</v>
       </c>
       <c r="G59" s="3">
-        <v>11151800</v>
+        <v>8745300</v>
       </c>
       <c r="H59" s="3">
+        <v>9072200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9998800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10644900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9884200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>9250400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>10691400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>12680100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>11761700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>11125800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>19220500</v>
+        <v>20315300</v>
       </c>
       <c r="E60" s="3">
-        <v>19873400</v>
+        <v>20164100</v>
       </c>
       <c r="F60" s="3">
-        <v>23089200</v>
+        <v>19399800</v>
       </c>
       <c r="G60" s="3">
-        <v>21824700</v>
+        <v>18346900</v>
       </c>
       <c r="H60" s="3">
+        <v>18970000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>22039700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>20832600</v>
+      </c>
+      <c r="K60" s="3">
         <v>20613400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>18607200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>21920200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>23132000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>22265300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>21223200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>46903800</v>
+        <v>50529500</v>
       </c>
       <c r="E61" s="3">
-        <v>46188600</v>
+        <v>50087500</v>
       </c>
       <c r="F61" s="3">
-        <v>43177300</v>
+        <v>49768400</v>
       </c>
       <c r="G61" s="3">
-        <v>41778400</v>
+        <v>44771800</v>
       </c>
       <c r="H61" s="3">
+        <v>44089100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>41214700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>39879400</v>
+      </c>
+      <c r="K61" s="3">
         <v>40401300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>41712100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>40931700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>39552200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>40608100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>40720700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>34333200</v>
+        <v>33189700</v>
       </c>
       <c r="E62" s="3">
-        <v>34995300</v>
+        <v>32983900</v>
       </c>
       <c r="F62" s="3">
-        <v>34500300</v>
+        <v>32719000</v>
       </c>
       <c r="G62" s="3">
-        <v>34804200</v>
+        <v>32772600</v>
       </c>
       <c r="H62" s="3">
+        <v>33404600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>32932100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>33222200</v>
+      </c>
+      <c r="K62" s="3">
         <v>34750700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>31913300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>31368200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>31843400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>31434400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>31597100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2497,8 +2906,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2950,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,43 +2994,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>101644500</v>
+        <v>105205400</v>
       </c>
       <c r="E66" s="3">
-        <v>102210500</v>
+        <v>104388200</v>
       </c>
       <c r="F66" s="3">
-        <v>101916000</v>
+        <v>103008300</v>
       </c>
       <c r="G66" s="3">
-        <v>99529300</v>
+        <v>97024300</v>
       </c>
       <c r="H66" s="3">
+        <v>97564500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>97283400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>95005200</v>
+      </c>
+      <c r="K66" s="3">
         <v>96894600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>93432100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>95399400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>95708100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>95502000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>94709900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2617,8 +3062,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2652,8 +3100,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2687,8 +3144,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2722,8 +3188,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,43 +3232,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>45336800</v>
+        <v>42235000</v>
       </c>
       <c r="E72" s="3">
-        <v>46066400</v>
+        <v>42090400</v>
       </c>
       <c r="F72" s="3">
-        <v>45466500</v>
+        <v>42533700</v>
       </c>
       <c r="G72" s="3">
-        <v>46337100</v>
+        <v>43276100</v>
       </c>
       <c r="H72" s="3">
+        <v>43972500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>43399800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>44230900</v>
+      </c>
+      <c r="K72" s="3">
         <v>46966100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>48013300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>46699700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>47492700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>47856500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>47487200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2827,8 +3320,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,8 +3364,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,43 +3408,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>61374700</v>
+        <v>57649600</v>
       </c>
       <c r="E76" s="3">
-        <v>62151700</v>
+        <v>57472000</v>
       </c>
       <c r="F76" s="3">
-        <v>61575800</v>
+        <v>57902000</v>
       </c>
       <c r="G76" s="3">
-        <v>62412300</v>
+        <v>58584900</v>
       </c>
       <c r="H76" s="3">
+        <v>59326600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>58776900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>59575400</v>
+      </c>
+      <c r="K76" s="3">
         <v>63079700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>64311700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>62946200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>64006500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>64551300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>63905200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2967,83 +3496,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-701100</v>
+        <v>187100</v>
       </c>
       <c r="E81" s="3">
-        <v>623600</v>
+        <v>-375900</v>
       </c>
       <c r="F81" s="3">
-        <v>-835300</v>
+        <v>-661800</v>
       </c>
       <c r="G81" s="3">
-        <v>-244000</v>
+        <v>-669200</v>
       </c>
       <c r="H81" s="3">
+        <v>595200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-797300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1221800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1313900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>287900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>780200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>246000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>2622000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3057,43 +3613,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2178100</v>
+        <v>2280200</v>
       </c>
       <c r="E83" s="3">
-        <v>2201000</v>
+        <v>2296500</v>
       </c>
       <c r="F83" s="3">
-        <v>2254900</v>
+        <v>2231100</v>
       </c>
       <c r="G83" s="3">
-        <v>2187800</v>
+        <v>2079100</v>
       </c>
       <c r="H83" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2152400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2088400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2193400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>2160200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>2131900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>2163500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>2162100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>2045900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3127,8 +3695,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3162,8 +3739,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3197,8 +3783,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3232,8 +3827,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3267,43 +3871,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-251600</v>
+        <v>2999700</v>
       </c>
       <c r="E89" s="3">
-        <v>3119700</v>
+        <v>1103600</v>
       </c>
       <c r="F89" s="3">
-        <v>374500</v>
+        <v>1967600</v>
       </c>
       <c r="G89" s="3">
-        <v>2654500</v>
+        <v>-240100</v>
       </c>
       <c r="H89" s="3">
+        <v>2977900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-307300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3198600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1865800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>3578100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>1449700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>3011300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>2051900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>4717300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3317,43 +3939,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2728400</v>
+        <v>-2163800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2234000</v>
+        <v>-3109600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3005900</v>
+        <v>-1907800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2826600</v>
+        <v>-2604300</v>
       </c>
       <c r="H91" s="3">
+        <v>-2132500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2869300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2698100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2613500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-2042300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-3235000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-3226900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-2603300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-1578400</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +4021,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3422,43 +4065,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-826800</v>
+        <v>-2779600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3420100</v>
+        <v>-3361000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3421700</v>
+        <v>-2877700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3783900</v>
+        <v>-789300</v>
       </c>
       <c r="H94" s="3">
+        <v>-3264700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3266200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3611900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2051000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-3014100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-2926700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-3172700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-1851400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-2836300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3472,43 +4133,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-21900</v>
+        <v>-2800</v>
       </c>
       <c r="E96" s="3">
-        <v>-15600</v>
+        <v>-2800</v>
       </c>
       <c r="F96" s="3">
-        <v>-490000</v>
+        <v>-2800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="H96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-16100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-1151900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-4600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-3700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3542,8 +4215,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3577,8 +4259,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3612,43 +4303,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-300300</v>
+        <v>-20600</v>
       </c>
       <c r="E100" s="3">
-        <v>771600</v>
+        <v>1610500</v>
       </c>
       <c r="F100" s="3">
-        <v>2879300</v>
+        <v>1514800</v>
       </c>
       <c r="G100" s="3">
-        <v>1314900</v>
+        <v>-286600</v>
       </c>
       <c r="H100" s="3">
+        <v>736500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2748400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1255100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-1151500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>1736900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>284000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-1745100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-615000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3682,39 +4391,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1378700</v>
+        <v>199500</v>
       </c>
       <c r="E102" s="3">
-        <v>471100</v>
+        <v>-646900</v>
       </c>
       <c r="F102" s="3">
-        <v>-168000</v>
+        <v>604700</v>
       </c>
       <c r="G102" s="3">
-        <v>185500</v>
+        <v>-1316000</v>
       </c>
       <c r="H102" s="3">
+        <v>449700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-392100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-587500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>259900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>122700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-1544500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>1266100</v>
       </c>
     </row>
